--- a/va_facility_data_2025-02-20/Lecanto VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Lecanto%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Lecanto VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Lecanto%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R93e0749c3c244ca780eb8ac40e76f40b"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R3999127a9622417dbace68c690193b39"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R25496c946efb469593b4879a65bf37a3"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rec04141bb7924f70ae94666e186d7507"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R52973c6eabe540b9a97017dc09f04b0a"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R5ff0519042eb47f991fbed78d4bc3ba3"/>
   </x:sheets>
 </x:workbook>
 </file>
